--- a/ArticleManage/main_working_folder/output_folders/Data 52 Preparation of tank-like resin-derived/Data52_all_graphs_excel.xlsx
+++ b/ArticleManage/main_working_folder/output_folders/Data 52 Preparation of tank-like resin-derived/Data52_all_graphs_excel.xlsx
@@ -5,11 +5,11 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="TPCSs-1-700" sheetId="1" r:id="rId1"/>
-    <sheet name="TPCSs-2-600" sheetId="2" r:id="rId4"/>
-    <sheet name="TPCSs-2-700" sheetId="3" r:id="rId5"/>
-    <sheet name="TPCSs-2-800" sheetId="4" r:id="rId6"/>
-    <sheet name="TPCSs-3-700" sheetId="5" r:id="rId7"/>
+    <sheet name="Figure 7 TPCSs-1-700  0-1-0-700" sheetId="1" r:id="rId1"/>
+    <sheet name="Figure 7 TPCSs-2-600  0-1-0-700" sheetId="2" r:id="rId4"/>
+    <sheet name="Figure 7 TPCSs-2-700  0-1-0-700" sheetId="3" r:id="rId5"/>
+    <sheet name="Figure 7 TPCSs-2-800  0-1-0-700" sheetId="4" r:id="rId6"/>
+    <sheet name="Figure 7 TPCSs-3-700  0-1-0-700" sheetId="5" r:id="rId7"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -113,7 +113,7 @@
             </a:pPr>
             <a:r>
               <a:rPr/>
-              <a:t>Izoterma adsorpcji probki TPCSs-1-700</a:t>
+              <a:t>Izoterma adsorpcji probki TPCSs-1-700 z wykresu 'Figure 7' </a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -172,12 +172,12 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'TPCSs-1-700'!$A$3:$A$50</c:f>
+              <c:f>'Figure 7 TPCSs-1-700  0-1-0-700'!$A$3:$A$70</c:f>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'TPCSs-1-700'!$B$3:$B$50</c:f>
+              <c:f>'Figure 7 TPCSs-1-700  0-1-0-700'!$B$3:$B$70</c:f>
               <c:numCache/>
             </c:numRef>
           </c:yVal>
@@ -190,6 +190,8 @@
         <c:axId val="1"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="1"/>
+          <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -259,6 +261,8 @@
         <c:axId val="2"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="700"/>
+          <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -423,7 +427,7 @@
             </a:pPr>
             <a:r>
               <a:rPr/>
-              <a:t>Izoterma adsorpcji probki TPCSs-2-600</a:t>
+              <a:t>Izoterma adsorpcji probki TPCSs-2-600 z wykresu 'Figure 7' </a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -482,12 +486,12 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'TPCSs-2-600'!$A$3:$A$50</c:f>
+              <c:f>'Figure 7 TPCSs-2-600  0-1-0-700'!$A$3:$A$70</c:f>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'TPCSs-2-600'!$B$3:$B$50</c:f>
+              <c:f>'Figure 7 TPCSs-2-600  0-1-0-700'!$B$3:$B$70</c:f>
               <c:numCache/>
             </c:numRef>
           </c:yVal>
@@ -500,6 +504,8 @@
         <c:axId val="1"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="1"/>
+          <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -569,6 +575,8 @@
         <c:axId val="2"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="700"/>
+          <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -733,7 +741,7 @@
             </a:pPr>
             <a:r>
               <a:rPr/>
-              <a:t>Izoterma adsorpcji probki TPCSs-2-700</a:t>
+              <a:t>Izoterma adsorpcji probki TPCSs-2-700 z wykresu 'Figure 7' </a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -792,12 +800,12 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'TPCSs-2-700'!$A$3:$A$50</c:f>
+              <c:f>'Figure 7 TPCSs-2-700  0-1-0-700'!$A$3:$A$70</c:f>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'TPCSs-2-700'!$B$3:$B$50</c:f>
+              <c:f>'Figure 7 TPCSs-2-700  0-1-0-700'!$B$3:$B$70</c:f>
               <c:numCache/>
             </c:numRef>
           </c:yVal>
@@ -810,6 +818,8 @@
         <c:axId val="1"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="1"/>
+          <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -879,6 +889,8 @@
         <c:axId val="2"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="700"/>
+          <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -1043,7 +1055,7 @@
             </a:pPr>
             <a:r>
               <a:rPr/>
-              <a:t>Izoterma adsorpcji probki TPCSs-2-800</a:t>
+              <a:t>Izoterma adsorpcji probki TPCSs-2-800 z wykresu 'Figure 7' </a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -1102,12 +1114,12 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'TPCSs-2-800'!$A$3:$A$50</c:f>
+              <c:f>'Figure 7 TPCSs-2-800  0-1-0-700'!$A$3:$A$70</c:f>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'TPCSs-2-800'!$B$3:$B$50</c:f>
+              <c:f>'Figure 7 TPCSs-2-800  0-1-0-700'!$B$3:$B$70</c:f>
               <c:numCache/>
             </c:numRef>
           </c:yVal>
@@ -1120,6 +1132,8 @@
         <c:axId val="1"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="1"/>
+          <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -1189,6 +1203,8 @@
         <c:axId val="2"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="700"/>
+          <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -1353,7 +1369,7 @@
             </a:pPr>
             <a:r>
               <a:rPr/>
-              <a:t>Izoterma adsorpcji probki TPCSs-3-700</a:t>
+              <a:t>Izoterma adsorpcji probki TPCSs-3-700 z wykresu 'Figure 7' </a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -1412,12 +1428,12 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'TPCSs-3-700'!$A$3:$A$50</c:f>
+              <c:f>'Figure 7 TPCSs-3-700  0-1-0-700'!$A$3:$A$70</c:f>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'TPCSs-3-700'!$B$3:$B$50</c:f>
+              <c:f>'Figure 7 TPCSs-3-700  0-1-0-700'!$B$3:$B$70</c:f>
               <c:numCache/>
             </c:numRef>
           </c:yVal>
@@ -1430,6 +1446,8 @@
         <c:axId val="1"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="1"/>
+          <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -1499,6 +1517,8 @@
         <c:axId val="2"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="700"/>
+          <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>

--- a/ArticleManage/main_working_folder/output_folders/Data 52 Preparation of tank-like resin-derived/Data52_all_graphs_excel.xlsx
+++ b/ArticleManage/main_working_folder/output_folders/Data 52 Preparation of tank-like resin-derived/Data52_all_graphs_excel.xlsx
@@ -4927,7 +4927,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B39"/>
+  <dimension ref="A1:B37"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -4948,293 +4948,277 @@
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>0.091</v>
+        <v>0.82</v>
       </c>
       <c r="B3" s="0">
-        <v>244.2804</v>
+        <v>429.5455</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>0.0915</v>
+        <v>0.84</v>
       </c>
       <c r="B4" s="0">
-        <v>203.386</v>
+        <v>429.5455</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0">
-        <v>0.0912</v>
+        <v>0.86</v>
       </c>
       <c r="B5" s="0">
-        <v>167.9336</v>
+        <v>429.5449</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0">
-        <v>0.0906</v>
+        <v>0.88</v>
       </c>
       <c r="B6" s="0">
-        <v>135.5091</v>
+        <v>430.2754</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0">
-        <v>0.0921</v>
+        <v>0.9</v>
       </c>
       <c r="B7" s="0">
-        <v>97.6129</v>
+        <v>430.8441</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0">
-        <v>0.0907</v>
+        <v>0.92</v>
       </c>
       <c r="B8" s="0">
-        <v>63.7461</v>
+        <v>430.9561</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0">
-        <v>0.089</v>
+        <v>0.94</v>
       </c>
       <c r="B9" s="0">
-        <v>32.4813</v>
+        <v>430.9561</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0">
-        <v>0.0912</v>
+        <v>0.96</v>
       </c>
       <c r="B10" s="0">
-        <v>282.2888</v>
+        <v>430.9269</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0">
-        <v>0.0932</v>
+        <v>0.98</v>
       </c>
       <c r="B11" s="0">
-        <v>9.8158</v>
+        <v>433.1478</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0">
-        <v>0.1046</v>
+        <v>0.7723</v>
       </c>
       <c r="B12" s="0">
-        <v>332.9448</v>
+        <v>429.9624</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0">
-        <v>0.1313</v>
+        <v>0.7277</v>
       </c>
       <c r="B13" s="0">
-        <v>365.8895</v>
+        <v>428.9968</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0">
-        <v>0.1663</v>
+        <v>0.6992</v>
       </c>
       <c r="B14" s="0">
-        <v>379.7274</v>
+        <v>428.0311</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0">
-        <v>0.2014</v>
+        <v>0.6809</v>
       </c>
       <c r="B15" s="0">
-        <v>386.9486</v>
+        <v>428.0311</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0">
-        <v>0.2364</v>
+        <v>0.6535</v>
       </c>
       <c r="B16" s="0">
-        <v>392.8935</v>
+        <v>428.0311</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0">
-        <v>0.2714</v>
+        <v>0.6363</v>
       </c>
       <c r="B17" s="0">
-        <v>397.6965</v>
+        <v>428.0311</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0">
-        <v>0.3065</v>
+        <v>0.5906</v>
       </c>
       <c r="B18" s="0">
-        <v>402.6338</v>
+        <v>427.0655</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0">
-        <v>0.3415</v>
+        <v>0.5449</v>
       </c>
       <c r="B19" s="0">
-        <v>407.0337</v>
+        <v>427.0655</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0">
-        <v>0.3766</v>
+        <v>0.5004</v>
       </c>
       <c r="B20" s="0">
-        <v>411.2657</v>
+        <v>426.0998</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="0">
-        <v>0.4116</v>
+        <v>0.4547</v>
       </c>
       <c r="B21" s="0">
-        <v>416.1358</v>
+        <v>422.2371</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="0">
-        <v>0.4467</v>
+        <v>0.4113</v>
       </c>
       <c r="B22" s="0">
-        <v>420.8044</v>
+        <v>416.4431</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="0">
-        <v>0.4817</v>
+        <v>0.3633</v>
       </c>
       <c r="B23" s="0">
-        <v>424.3982</v>
+        <v>409.6835</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="0">
-        <v>0.5168</v>
+        <v>0.3187</v>
       </c>
       <c r="B24" s="0">
-        <v>425.9432</v>
+        <v>403.8895</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="0">
-        <v>0.5518</v>
+        <v>0.2742</v>
       </c>
       <c r="B25" s="0">
-        <v>426.6822</v>
+        <v>399.0612</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="0">
-        <v>0.5869</v>
+        <v>0.2571</v>
       </c>
       <c r="B26" s="0">
-        <v>427.7234</v>
+        <v>396.1642</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="0">
-        <v>0.6219</v>
+        <v>0.2388</v>
       </c>
       <c r="B27" s="0">
-        <v>427.9585</v>
+        <v>393.2672</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="0">
-        <v>0.6569</v>
+        <v>0.2205</v>
       </c>
       <c r="B28" s="0">
-        <v>428.0256</v>
+        <v>390.3702</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="0">
-        <v>0.692</v>
+        <v>0.2022</v>
       </c>
       <c r="B29" s="0">
-        <v>428.2943</v>
+        <v>387.4732</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="0">
-        <v>0.727</v>
+        <v>0.1839</v>
       </c>
       <c r="B30" s="0">
-        <v>429.2012</v>
+        <v>383.6105</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="0">
-        <v>0.7621</v>
+        <v>0.1657</v>
       </c>
       <c r="B31" s="0">
-        <v>429.3691</v>
+        <v>379.7479</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="0">
-        <v>0.7971</v>
+        <v>0.1474</v>
       </c>
       <c r="B32" s="0">
-        <v>429.3691</v>
+        <v>374.9195</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="0">
-        <v>0.8322</v>
+        <v>0.1371</v>
       </c>
       <c r="B33" s="0">
-        <v>429.3691</v>
+        <v>371.0569</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="0">
-        <v>0.8672</v>
+        <v>0.1211</v>
       </c>
       <c r="B34" s="0">
-        <v>429.5706</v>
+        <v>361.4002</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="0">
-        <v>0.9023</v>
+        <v>0.1131</v>
       </c>
       <c r="B35" s="0">
-        <v>430.276</v>
+        <v>355.6062</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="0">
-        <v>0.9373</v>
+        <v>0.1063</v>
       </c>
       <c r="B36" s="0">
-        <v>430.7798</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" s="0">
-        <v>0.9723</v>
-      </c>
-      <c r="B37" s="0">
-        <v>432.3584</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" s="0">
-        <v>0.9957</v>
-      </c>
-      <c r="B38" s="0">
-        <v>435.0118</v>
-      </c>
-    </row>
-    <row r="39"/>
+        <v>344.9839</v>
+      </c>
+    </row>
+    <row r="37"/>
   </sheetData>
   <headerFooter/>
   <drawing r:id="rId1"/>
@@ -5243,7 +5227,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B47"/>
+  <dimension ref="A1:B44"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -5264,357 +5248,333 @@
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>0.0932</v>
+        <v>0.1369</v>
       </c>
       <c r="B3" s="0">
-        <v>275.3096</v>
+        <v>325.0465</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>0.0912</v>
+        <v>0.1494</v>
       </c>
       <c r="B4" s="0">
-        <v>252.4491</v>
+        <v>327.7198</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0">
-        <v>0.0912</v>
+        <v>0.1667</v>
       </c>
       <c r="B5" s="0">
-        <v>231.3715</v>
+        <v>330.0353</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0">
-        <v>0.0912</v>
+        <v>0.5901</v>
       </c>
       <c r="B6" s="0">
-        <v>210.1411</v>
+        <v>344.6208</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0">
-        <v>0.0912</v>
+        <v>0.9719</v>
       </c>
       <c r="B7" s="0">
-        <v>189.2986</v>
+        <v>348.7342</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0">
-        <v>0.0912</v>
+        <v>0.9927</v>
       </c>
       <c r="B8" s="0">
-        <v>171.1011</v>
+        <v>349.9356</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0">
-        <v>0.0912</v>
+        <v>0.9528</v>
       </c>
       <c r="B9" s="0">
-        <v>152.9389</v>
+        <v>347.8809</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0">
-        <v>0.0912</v>
+        <v>0.9299</v>
       </c>
       <c r="B10" s="0">
-        <v>134.2868</v>
+        <v>345.9496</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0">
-        <v>0.0909</v>
+        <v>0.9071</v>
       </c>
       <c r="B11" s="0">
-        <v>118.6011</v>
+        <v>346.9152</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0">
-        <v>0.0906</v>
+        <v>0.8854</v>
       </c>
       <c r="B12" s="0">
-        <v>90.1278</v>
+        <v>346.9152</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0">
-        <v>0.0912</v>
+        <v>0.8614</v>
       </c>
       <c r="B13" s="0">
-        <v>66.5067</v>
+        <v>345.9496</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0">
-        <v>0.0907</v>
+        <v>0.8168</v>
       </c>
       <c r="B14" s="0">
-        <v>51.7986</v>
+        <v>347.8809</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0">
-        <v>0.0898</v>
+        <v>0.7985</v>
       </c>
       <c r="B15" s="0">
-        <v>36.9122</v>
+        <v>346.9152</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0">
-        <v>0.0912</v>
+        <v>0.8351</v>
       </c>
       <c r="B16" s="0">
-        <v>22.4824</v>
+        <v>346.9152</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0">
-        <v>0.0981</v>
+        <v>0.7723</v>
       </c>
       <c r="B17" s="0">
-        <v>299.6477</v>
+        <v>344.9839</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0">
-        <v>0.1147</v>
+        <v>0.7266</v>
       </c>
       <c r="B18" s="0">
-        <v>315.8755</v>
+        <v>344.9839</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0">
-        <v>0.0923</v>
+        <v>0.6809</v>
       </c>
       <c r="B19" s="0">
-        <v>107.0337</v>
+        <v>345.9496</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0">
-        <v>0.1369</v>
+        <v>0.6352</v>
       </c>
       <c r="B20" s="0">
-        <v>325.0465</v>
+        <v>345.9496</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="0">
-        <v>0.1494</v>
+        <v>0.5449</v>
       </c>
       <c r="B21" s="0">
-        <v>327.7198</v>
+        <v>344.9839</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="0">
-        <v>0.1667</v>
+        <v>0.4992</v>
       </c>
       <c r="B22" s="0">
-        <v>330.0353</v>
+        <v>344.9839</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="0">
-        <v>0.2017</v>
+        <v>0.4547</v>
       </c>
       <c r="B23" s="0">
-        <v>334.0664</v>
+        <v>344.0182</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="0">
-        <v>0.2413</v>
+        <v>0.4101</v>
       </c>
       <c r="B24" s="0">
-        <v>336.0232</v>
+        <v>343.0526</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="0">
-        <v>0.2744</v>
+        <v>0.3644</v>
       </c>
       <c r="B25" s="0">
-        <v>337.7798</v>
+        <v>341.1212</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="0">
-        <v>0.311</v>
+        <v>0.3187</v>
       </c>
       <c r="B26" s="0">
-        <v>339.0813</v>
+        <v>341.1212</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="0">
-        <v>0.3456</v>
+        <v>0.273</v>
       </c>
       <c r="B27" s="0">
-        <v>341.6134</v>
+        <v>338.2242</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="0">
-        <v>0.378</v>
+        <v>0.2548</v>
       </c>
       <c r="B28" s="0">
-        <v>341.4185</v>
+        <v>338.2242</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="0">
-        <v>0.414</v>
+        <v>0.2353</v>
       </c>
       <c r="B29" s="0">
-        <v>342.0964</v>
+        <v>338.2242</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="0">
-        <v>0.4507</v>
+        <v>0.2182</v>
       </c>
       <c r="B30" s="0">
-        <v>342.7583</v>
+        <v>336.2929</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="0">
-        <v>0.4873</v>
+        <v>0.2011</v>
       </c>
       <c r="B31" s="0">
-        <v>343.2061</v>
+        <v>335.3273</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="0">
-        <v>0.5201</v>
+        <v>0.1828</v>
       </c>
       <c r="B32" s="0">
-        <v>345.4909</v>
+        <v>332.4303</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="0">
-        <v>0.5534</v>
+        <v>0.12</v>
       </c>
       <c r="B33" s="0">
-        <v>343.6387</v>
+        <v>319.8766</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="0">
-        <v>0.5901</v>
+        <v>0.1017</v>
       </c>
       <c r="B34" s="0">
-        <v>344.6208</v>
+        <v>307.323</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="0">
-        <v>0.6272</v>
+        <v>0.0937</v>
       </c>
       <c r="B35" s="0">
-        <v>344.3878</v>
+        <v>273.5247</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="0">
-        <v>0.661</v>
+        <v>0.112</v>
       </c>
       <c r="B36" s="0">
-        <v>346.3326</v>
+        <v>315.0483</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="0">
-        <v>0.6931</v>
+        <v>0.0925</v>
       </c>
       <c r="B37" s="0">
-        <v>344.7296</v>
+        <v>167.3015</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="0">
-        <v>0.7294</v>
+        <v>0.0914</v>
       </c>
       <c r="B38" s="0">
-        <v>344.7296</v>
+        <v>150.8852</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="0">
-        <v>0.7663</v>
+        <v>0.0914</v>
       </c>
       <c r="B39" s="0">
-        <v>345.0306</v>
+        <v>182.7521</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="0">
-        <v>0.8017</v>
+        <v>0.0914</v>
       </c>
       <c r="B40" s="0">
-        <v>344.1402</v>
+        <v>203.0311</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="0">
-        <v>0.8351</v>
+        <v>0.0914</v>
       </c>
       <c r="B41" s="0">
-        <v>344.2258</v>
+        <v>226.2071</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="0">
-        <v>0.8707</v>
+        <v>0.0925</v>
       </c>
       <c r="B42" s="0">
-        <v>343.5472</v>
+        <v>248.4174</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="0">
-        <v>0.9049</v>
+        <v>0.0948</v>
       </c>
       <c r="B43" s="0">
-        <v>344.3201</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" s="0">
-        <v>0.9397</v>
-      </c>
-      <c r="B44" s="0">
-        <v>343.8961</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" s="0">
-        <v>0.9776</v>
-      </c>
-      <c r="B45" s="0">
-        <v>345.3543</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" s="0">
-        <v>0.9984</v>
-      </c>
-      <c r="B46" s="0">
-        <v>350.9013</v>
-      </c>
-    </row>
-    <row r="47"/>
+        <v>289.941</v>
+      </c>
+    </row>
+    <row r="44"/>
   </sheetData>
   <headerFooter/>
   <drawing r:id="rId1"/>
@@ -5623,7 +5583,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B41"/>
+  <dimension ref="A1:B57"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -5644,309 +5604,437 @@
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>0.0883</v>
+        <v>0.0934</v>
       </c>
       <c r="B3" s="0">
-        <v>301.1578</v>
+        <v>349.2379</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>0.0912</v>
+        <v>0.3165</v>
       </c>
       <c r="B4" s="0">
-        <v>249.3764</v>
+        <v>471.5088</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0">
-        <v>0.0917</v>
+        <v>0.9962</v>
       </c>
       <c r="B5" s="0">
-        <v>206.2522</v>
+        <v>483.074</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0">
-        <v>0.0905</v>
+        <v>0.9756</v>
       </c>
       <c r="B6" s="0">
-        <v>172.1103</v>
+        <v>480.177</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0">
-        <v>0.0912</v>
+        <v>0.9528</v>
       </c>
       <c r="B7" s="0">
-        <v>131.0807</v>
+        <v>480.177</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0">
-        <v>0.0912</v>
+        <v>0.9322</v>
       </c>
       <c r="B8" s="0">
-        <v>102.5246</v>
+        <v>480.177</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0">
-        <v>0.0912</v>
+        <v>0.9116</v>
       </c>
       <c r="B9" s="0">
-        <v>75.8529</v>
+        <v>479.2114</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0">
-        <v>0.0912</v>
+        <v>0.8876</v>
       </c>
       <c r="B10" s="0">
-        <v>41.1519</v>
+        <v>479.2114</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0">
-        <v>0.0912</v>
+        <v>0.8671</v>
       </c>
       <c r="B11" s="0">
-        <v>10.7967</v>
+        <v>478.2457</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0">
-        <v>0.0934</v>
+        <v>0.8408</v>
       </c>
       <c r="B12" s="0">
-        <v>349.2379</v>
+        <v>479.2114</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0">
-        <v>0.1037</v>
+        <v>0.8191</v>
       </c>
       <c r="B13" s="0">
-        <v>383.687</v>
+        <v>478.2457</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0">
-        <v>0.1105</v>
+        <v>0.7745</v>
       </c>
       <c r="B14" s="0">
-        <v>420.0622</v>
+        <v>477.28</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0">
-        <v>0.1402</v>
+        <v>0.7528</v>
       </c>
       <c r="B15" s="0">
-        <v>444.1737</v>
+        <v>478.2457</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0">
-        <v>0.1763</v>
+        <v>0.7277</v>
       </c>
       <c r="B16" s="0">
-        <v>459.2281</v>
+        <v>477.28</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0">
-        <v>0.2114</v>
+        <v>0.682</v>
       </c>
       <c r="B17" s="0">
-        <v>465.3886</v>
+        <v>478.2457</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0">
-        <v>0.2464</v>
+        <v>0.6375</v>
       </c>
       <c r="B18" s="0">
-        <v>468.9165</v>
+        <v>477.28</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0">
-        <v>0.2815</v>
+        <v>0.5918</v>
       </c>
       <c r="B19" s="0">
-        <v>469.902</v>
+        <v>477.28</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0">
-        <v>0.3165</v>
+        <v>0.5461</v>
       </c>
       <c r="B20" s="0">
-        <v>471.5088</v>
+        <v>476.3144</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="0">
-        <v>0.3515</v>
+        <v>0.5004</v>
       </c>
       <c r="B21" s="0">
-        <v>473.193</v>
+        <v>475.3487</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="0">
-        <v>0.3866</v>
+        <v>0.4558</v>
       </c>
       <c r="B22" s="0">
-        <v>474.0352</v>
+        <v>474.383</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="0">
-        <v>0.4216</v>
+        <v>0.409</v>
       </c>
       <c r="B23" s="0">
-        <v>475.522</v>
+        <v>472.4517</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="0">
-        <v>0.4567</v>
+        <v>0.3656</v>
       </c>
       <c r="B24" s="0">
-        <v>477.2471</v>
+        <v>471.4861</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="0">
-        <v>0.4917</v>
+        <v>0.2742</v>
       </c>
       <c r="B25" s="0">
-        <v>477.5085</v>
+        <v>467.6234</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="0">
-        <v>0.5268</v>
+        <v>0.2525</v>
       </c>
       <c r="B26" s="0">
-        <v>476.9916</v>
+        <v>464.7264</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="0">
-        <v>0.5618</v>
+        <v>0.2376</v>
       </c>
       <c r="B27" s="0">
-        <v>477.5949</v>
+        <v>461.8294</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="0">
-        <v>0.5969</v>
+        <v>0.2171</v>
       </c>
       <c r="B28" s="0">
-        <v>479.1763</v>
+        <v>459.8981</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="0">
-        <v>0.6319</v>
+        <v>0.2034</v>
       </c>
       <c r="B29" s="0">
-        <v>479.1795</v>
+        <v>458.9324</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="0">
-        <v>0.667</v>
+        <v>0.1839</v>
       </c>
       <c r="B30" s="0">
-        <v>479.3154</v>
+        <v>455.0697</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="0">
-        <v>0.702</v>
+        <v>0.1462</v>
       </c>
       <c r="B31" s="0">
-        <v>479.3448</v>
+        <v>444.4474</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="0">
-        <v>0.737</v>
+        <v>0.1657</v>
       </c>
       <c r="B32" s="0">
-        <v>480.6456</v>
+        <v>450.2414</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="0">
-        <v>0.7721</v>
+        <v>0.1371</v>
       </c>
       <c r="B33" s="0">
-        <v>480.4403</v>
+        <v>438.6534</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="0">
-        <v>0.8071</v>
+        <v>0.1177</v>
       </c>
       <c r="B34" s="0">
-        <v>480.1637</v>
+        <v>425.1341</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="0">
-        <v>0.8422</v>
+        <v>0.1074</v>
       </c>
       <c r="B35" s="0">
-        <v>481.5559</v>
+        <v>401.9582</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="0">
-        <v>0.8772</v>
+        <v>0.0971</v>
       </c>
       <c r="B36" s="0">
-        <v>482.9948</v>
+        <v>386.5075</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="0">
-        <v>0.9123</v>
+        <v>0.0948</v>
       </c>
       <c r="B37" s="0">
-        <v>482.2681</v>
+        <v>366.2285</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="0">
-        <v>0.9473</v>
+        <v>0.0937</v>
       </c>
       <c r="B38" s="0">
-        <v>483.446</v>
+        <v>327.6019</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="0">
-        <v>0.9824</v>
+        <v>0.0937</v>
       </c>
       <c r="B39" s="0">
-        <v>487.1878</v>
+        <v>307.323</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="0">
-        <v>1.0032</v>
+        <v>0.0925</v>
       </c>
       <c r="B40" s="0">
-        <v>484.9138</v>
-      </c>
-    </row>
-    <row r="41"/>
+        <v>287.044</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="0">
+        <v>0.0925</v>
+      </c>
+      <c r="B41" s="0">
+        <v>267.7307</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="0">
+        <v>0.0925</v>
+      </c>
+      <c r="B42" s="0">
+        <v>247.4517</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="0">
+        <v>0.0925</v>
+      </c>
+      <c r="B43" s="0">
+        <v>227.1727</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="0">
+        <v>0.0925</v>
+      </c>
+      <c r="B44" s="0">
+        <v>207.8594</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="0">
+        <v>0.0914</v>
+      </c>
+      <c r="B45" s="0">
+        <v>188.5461</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="0">
+        <v>0.0914</v>
+      </c>
+      <c r="B46" s="0">
+        <v>168.2672</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="0">
+        <v>0.0925</v>
+      </c>
+      <c r="B47" s="0">
+        <v>151.8509</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="0">
+        <v>0.0925</v>
+      </c>
+      <c r="B48" s="0">
+        <v>139.2972</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="0">
+        <v>0.0914</v>
+      </c>
+      <c r="B49" s="0">
+        <v>124.8122</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="0">
+        <v>0.0925</v>
+      </c>
+      <c r="B50" s="0">
+        <v>109.3616</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="0">
+        <v>0.0914</v>
+      </c>
+      <c r="B51" s="0">
+        <v>92.9453</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="0">
+        <v>0.0914</v>
+      </c>
+      <c r="B52" s="0">
+        <v>78.4603</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="0">
+        <v>0.0914</v>
+      </c>
+      <c r="B53" s="0">
+        <v>63.0097</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="0">
+        <v>0.0914</v>
+      </c>
+      <c r="B54" s="0">
+        <v>46.5933</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="0">
+        <v>0.0925</v>
+      </c>
+      <c r="B55" s="0">
+        <v>32.1084</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="0">
+        <v>0.0914</v>
+      </c>
+      <c r="B56" s="0">
+        <v>15.6921</v>
+      </c>
+    </row>
+    <row r="57"/>
   </sheetData>
   <headerFooter/>
   <drawing r:id="rId1"/>
@@ -5955,7 +6043,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B42"/>
+  <dimension ref="A1:B59"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -5976,317 +6064,453 @@
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>0.0896</v>
+        <v>0.9939</v>
       </c>
       <c r="B3" s="0">
-        <v>320.6922</v>
+        <v>603.7822</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>0.0884</v>
+        <v>0.9745</v>
       </c>
       <c r="B4" s="0">
-        <v>280.9105</v>
+        <v>601.8509</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0">
-        <v>0.0915</v>
+        <v>0.9516</v>
       </c>
       <c r="B5" s="0">
-        <v>243.4232</v>
+        <v>600.8852</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0">
-        <v>0.0918</v>
+        <v>0.9299</v>
       </c>
       <c r="B6" s="0">
-        <v>209.9461</v>
+        <v>600.8852</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0">
-        <v>0.0902</v>
+        <v>0.9105</v>
       </c>
       <c r="B7" s="0">
-        <v>176.4854</v>
+        <v>600.8852</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0">
-        <v>0.0919</v>
+        <v>0.8831</v>
       </c>
       <c r="B8" s="0">
-        <v>132.2395</v>
+        <v>599.9195</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0">
-        <v>0.0903</v>
+        <v>0.8625</v>
       </c>
       <c r="B9" s="0">
-        <v>89.3295</v>
+        <v>599.9195</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0">
-        <v>0.0919</v>
+        <v>0.8351</v>
       </c>
       <c r="B10" s="0">
-        <v>55.0715</v>
+        <v>599.9195</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0">
-        <v>0.091</v>
+        <v>0.8168</v>
       </c>
       <c r="B11" s="0">
-        <v>19.0893</v>
+        <v>597.9882</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0">
-        <v>0.0911</v>
+        <v>0.7997</v>
       </c>
       <c r="B12" s="0">
-        <v>375.0031</v>
+        <v>598.9539</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0">
-        <v>0.0975</v>
+        <v>0.7711</v>
       </c>
       <c r="B13" s="0">
-        <v>413.3418</v>
+        <v>597.9882</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0">
-        <v>0.106</v>
+        <v>0.7266</v>
       </c>
       <c r="B14" s="0">
-        <v>443.6587</v>
+        <v>596.0569</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0">
-        <v>0.12</v>
+        <v>0.6809</v>
       </c>
       <c r="B15" s="0">
-        <v>478.4677</v>
+        <v>596.0569</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0">
-        <v>0.1429</v>
+        <v>0.6363</v>
       </c>
       <c r="B16" s="0">
-        <v>515.0604</v>
+        <v>596.0569</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0">
-        <v>0.1763</v>
+        <v>0.5895</v>
       </c>
       <c r="B17" s="0">
-        <v>538.2249</v>
+        <v>593.1599</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0">
-        <v>0.2114</v>
+        <v>0.5449</v>
       </c>
       <c r="B18" s="0">
-        <v>552.9697</v>
+        <v>592.1942</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0">
-        <v>0.2464</v>
+        <v>0.4981</v>
       </c>
       <c r="B19" s="0">
-        <v>562.5756</v>
+        <v>591.2285</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0">
-        <v>0.2815</v>
+        <v>0.4535</v>
       </c>
       <c r="B20" s="0">
-        <v>569.7632</v>
+        <v>588.3315</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="0">
-        <v>0.3165</v>
+        <v>0.4136</v>
       </c>
       <c r="B21" s="0">
-        <v>575.1707</v>
+        <v>585.4345</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="0">
-        <v>0.3515</v>
+        <v>0.3644</v>
       </c>
       <c r="B22" s="0">
-        <v>579.6714</v>
+        <v>581.5719</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="0">
-        <v>0.3866</v>
+        <v>0.3187</v>
       </c>
       <c r="B23" s="0">
-        <v>583.0637</v>
+        <v>576.7436</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="0">
-        <v>0.4216</v>
+        <v>0.2742</v>
       </c>
       <c r="B24" s="0">
-        <v>586.053</v>
+        <v>569.9839</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="0">
-        <v>0.4567</v>
+        <v>0.2582</v>
       </c>
       <c r="B25" s="0">
-        <v>588.3705</v>
+        <v>566.1212</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="0">
-        <v>0.4917</v>
+        <v>0.2399</v>
       </c>
       <c r="B26" s="0">
-        <v>590.6544</v>
+        <v>561.2929</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="0">
-        <v>0.5268</v>
+        <v>0.2194</v>
       </c>
       <c r="B27" s="0">
-        <v>592.3337</v>
+        <v>555.4989</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="0">
-        <v>0.5618</v>
+        <v>0.2034</v>
       </c>
       <c r="B28" s="0">
-        <v>593.2406</v>
+        <v>550.6706</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="0">
-        <v>0.5969</v>
+        <v>0.1839</v>
       </c>
       <c r="B29" s="0">
-        <v>594.3826</v>
+        <v>541.9796</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="0">
-        <v>0.6319</v>
+        <v>0.1668</v>
       </c>
       <c r="B30" s="0">
-        <v>595.323</v>
+        <v>533.2886</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="0">
-        <v>0.667</v>
+        <v>0.1474</v>
       </c>
       <c r="B31" s="0">
-        <v>595.5581</v>
+        <v>519.7693</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="0">
-        <v>0.702</v>
+        <v>0.1337</v>
       </c>
       <c r="B32" s="0">
-        <v>596.4985</v>
+        <v>506.25</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="0">
-        <v>0.737</v>
+        <v>0.1188</v>
       </c>
       <c r="B33" s="0">
-        <v>596.868</v>
+        <v>483.074</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="0">
-        <v>0.7721</v>
+        <v>0.1051</v>
       </c>
       <c r="B34" s="0">
-        <v>597.7077</v>
+        <v>449.2758</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="0">
-        <v>0.8071</v>
+        <v>0.0994</v>
       </c>
       <c r="B35" s="0">
-        <v>598.1107</v>
+        <v>432.8594</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="0">
-        <v>0.8422</v>
+        <v>0.0983</v>
       </c>
       <c r="B36" s="0">
-        <v>598.4802</v>
+        <v>415.4775</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="0">
-        <v>0.8772</v>
+        <v>0.0948</v>
       </c>
       <c r="B37" s="0">
-        <v>599.2527</v>
+        <v>397.1298</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="0">
-        <v>0.9123</v>
+        <v>0.0948</v>
       </c>
       <c r="B38" s="0">
-        <v>600.0588</v>
+        <v>379.7479</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="0">
-        <v>0.9473</v>
+        <v>0.0937</v>
       </c>
       <c r="B39" s="0">
-        <v>600.6633</v>
+        <v>359.4689</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="0">
-        <v>0.9824</v>
+        <v>0.0937</v>
       </c>
       <c r="B40" s="0">
-        <v>603.4847</v>
+        <v>339.1899</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="0">
-        <v>1.0032</v>
+        <v>0.0925</v>
       </c>
       <c r="B41" s="0">
-        <v>605.7014</v>
-      </c>
-    </row>
-    <row r="42"/>
+        <v>320.8423</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="0">
+        <v>0.0925</v>
+      </c>
+      <c r="B42" s="0">
+        <v>299.5976</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="0">
+        <v>0.0925</v>
+      </c>
+      <c r="B43" s="0">
+        <v>280.2843</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="0">
+        <v>0.0925</v>
+      </c>
+      <c r="B44" s="0">
+        <v>260.971</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="0">
+        <v>0.0914</v>
+      </c>
+      <c r="B45" s="0">
+        <v>239.7264</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="0">
+        <v>0.0925</v>
+      </c>
+      <c r="B46" s="0">
+        <v>220.4131</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="0">
+        <v>0.0914</v>
+      </c>
+      <c r="B47" s="0">
+        <v>200.1341</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="0">
+        <v>0.0925</v>
+      </c>
+      <c r="B48" s="0">
+        <v>179.8552</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="0">
+        <v>0.0925</v>
+      </c>
+      <c r="B49" s="0">
+        <v>160.5418</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="0">
+        <v>0.0914</v>
+      </c>
+      <c r="B50" s="0">
+        <v>141.2285</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="0">
+        <v>0.0914</v>
+      </c>
+      <c r="B51" s="0">
+        <v>119.9839</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="0">
+        <v>0.0925</v>
+      </c>
+      <c r="B52" s="0">
+        <v>105.4989</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="0">
+        <v>0.0914</v>
+      </c>
+      <c r="B53" s="0">
+        <v>90.0483</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="0">
+        <v>0.0925</v>
+      </c>
+      <c r="B54" s="0">
+        <v>75.5633</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="0">
+        <v>0.0925</v>
+      </c>
+      <c r="B55" s="0">
+        <v>61.0783</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="0">
+        <v>0.0925</v>
+      </c>
+      <c r="B56" s="0">
+        <v>45.6277</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="0">
+        <v>0.0914</v>
+      </c>
+      <c r="B57" s="0">
+        <v>30.177</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="0">
+        <v>0.0914</v>
+      </c>
+      <c r="B58" s="0">
+        <v>15.6921</v>
+      </c>
+    </row>
+    <row r="59"/>
   </sheetData>
   <headerFooter/>
   <drawing r:id="rId1"/>
@@ -6295,7 +6519,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B71"/>
+  <dimension ref="A1:B36"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -6316,549 +6540,269 @@
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>0.0934</v>
+        <v>0.3165</v>
       </c>
       <c r="B3" s="0">
-        <v>331.7314</v>
+        <v>464.4432</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>0.1025</v>
+        <v>0.9916</v>
       </c>
       <c r="B4" s="0">
-        <v>370.0431</v>
+        <v>479.2114</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0">
-        <v>0.0971</v>
+        <v>0.9745</v>
       </c>
       <c r="B5" s="0">
-        <v>350.3723</v>
+        <v>477.28</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0">
-        <v>0.1064</v>
+        <v>0.9516</v>
       </c>
       <c r="B6" s="0">
-        <v>393.9872</v>
+        <v>478.2457</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0">
-        <v>0.1161</v>
+        <v>0.9368</v>
       </c>
       <c r="B7" s="0">
-        <v>412.4154</v>
+        <v>477.28</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0">
-        <v>0.1329</v>
+        <v>0.9128</v>
       </c>
       <c r="B8" s="0">
-        <v>427.4455</v>
+        <v>476.3144</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0">
-        <v>0.1513</v>
+        <v>0.8876</v>
       </c>
       <c r="B9" s="0">
-        <v>438.346</v>
+        <v>476.3144</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0">
-        <v>0.1696</v>
+        <v>0.8625</v>
       </c>
       <c r="B10" s="0">
-        <v>445.5618</v>
+        <v>475.3487</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0">
-        <v>0.188</v>
+        <v>0.8419</v>
       </c>
       <c r="B11" s="0">
-        <v>449.6954</v>
+        <v>475.3487</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0">
-        <v>0.2064</v>
+        <v>0.8168</v>
       </c>
       <c r="B12" s="0">
-        <v>453.2221</v>
+        <v>474.383</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0">
-        <v>0.2247</v>
+        <v>0.7711</v>
       </c>
       <c r="B13" s="0">
-        <v>456.2101</v>
+        <v>475.3487</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0">
-        <v>0.2431</v>
+        <v>0.7266</v>
       </c>
       <c r="B14" s="0">
-        <v>457.9029</v>
+        <v>473.4174</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0">
-        <v>0.2614</v>
+        <v>0.6809</v>
       </c>
       <c r="B15" s="0">
-        <v>459.7945</v>
+        <v>474.383</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0">
-        <v>0.2792</v>
+        <v>0.6352</v>
       </c>
       <c r="B16" s="0">
-        <v>461.6967</v>
+        <v>473.4174</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0">
-        <v>0.2981</v>
+        <v>0.5895</v>
       </c>
       <c r="B17" s="0">
-        <v>462.8081</v>
+        <v>472.4517</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0">
-        <v>0.3165</v>
+        <v>0.5449</v>
       </c>
       <c r="B18" s="0">
-        <v>464.4432</v>
+        <v>472.4517</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0">
-        <v>0.3349</v>
+        <v>0.4992</v>
       </c>
       <c r="B19" s="0">
-        <v>465.0203</v>
+        <v>471.4861</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0">
-        <v>0.3532</v>
+        <v>0.4535</v>
       </c>
       <c r="B20" s="0">
-        <v>465.5012</v>
+        <v>469.5547</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="0">
-        <v>0.3716</v>
+        <v>0.409</v>
       </c>
       <c r="B21" s="0">
-        <v>466.7323</v>
+        <v>467.6234</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="0">
-        <v>0.3899</v>
+        <v>0.3633</v>
       </c>
       <c r="B22" s="0">
-        <v>467.4569</v>
+        <v>466.6577</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="0">
-        <v>0.4083</v>
+        <v>0.2742</v>
       </c>
       <c r="B23" s="0">
-        <v>468.2328</v>
+        <v>460.8637</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="0">
-        <v>0.4266</v>
+        <v>0.2571</v>
       </c>
       <c r="B24" s="0">
-        <v>468.6431</v>
+        <v>460.8637</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="0">
-        <v>0.4457</v>
+        <v>0.2468</v>
       </c>
       <c r="B25" s="0">
-        <v>469.3966</v>
+        <v>459.8981</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="0">
-        <v>0.4634</v>
+        <v>0.2205</v>
       </c>
       <c r="B26" s="0">
-        <v>469.5408</v>
+        <v>456.0354</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="0">
-        <v>0.4817</v>
+        <v>0.2034</v>
       </c>
       <c r="B27" s="0">
-        <v>470.2782</v>
+        <v>454.1041</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="0">
-        <v>0.4999</v>
+        <v>0.1839</v>
       </c>
       <c r="B28" s="0">
-        <v>470.2312</v>
+        <v>449.2758</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="0">
-        <v>0.5184</v>
+        <v>0.1657</v>
       </c>
       <c r="B29" s="0">
-        <v>470.7912</v>
+        <v>444.4474</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="0">
-        <v>0.5368</v>
+        <v>0.1508</v>
       </c>
       <c r="B30" s="0">
-        <v>471.4003</v>
+        <v>438.6534</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="0">
-        <v>0.5551</v>
+        <v>0.136</v>
       </c>
       <c r="B31" s="0">
-        <v>471.6248</v>
+        <v>429.9624</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="0">
-        <v>0.5735</v>
+        <v>0.1211</v>
       </c>
       <c r="B32" s="0">
-        <v>472.1377</v>
+        <v>415.4775</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="0">
-        <v>0.5915</v>
+        <v>0.1154</v>
       </c>
       <c r="B33" s="0">
-        <v>471.5261</v>
+        <v>410.6491</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="0">
-        <v>0.6102</v>
+        <v>0.1051</v>
       </c>
       <c r="B34" s="0">
-        <v>472.3942</v>
+        <v>394.2328</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="0">
-        <v>0.6291</v>
+        <v>0.1005</v>
       </c>
       <c r="B35" s="0">
-        <v>472.5705</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" s="0">
-        <v>0.6469</v>
-      </c>
-      <c r="B36" s="0">
-        <v>473.1637</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" s="0">
-        <v>0.6653</v>
-      </c>
-      <c r="B37" s="0">
-        <v>473.0995</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" s="0">
-        <v>0.6834</v>
-      </c>
-      <c r="B38" s="0">
-        <v>473.1113</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" s="0">
-        <v>0.702</v>
-      </c>
-      <c r="B39" s="0">
-        <v>473.8049</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" s="0">
-        <v>0.7208</v>
-      </c>
-      <c r="B40" s="0">
-        <v>473.9518</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" s="0">
-        <v>0.7387</v>
-      </c>
-      <c r="B41" s="0">
-        <v>473.3881</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" s="0">
-        <v>0.7571</v>
-      </c>
-      <c r="B42" s="0">
-        <v>473.5484</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" s="0">
-        <v>0.775</v>
-      </c>
-      <c r="B43" s="0">
-        <v>474.3339</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" s="0">
-        <v>0.7938</v>
-      </c>
-      <c r="B44" s="0">
-        <v>474.959</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" s="0">
-        <v>0.8124</v>
-      </c>
-      <c r="B45" s="0">
-        <v>474.4514</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" s="0">
-        <v>0.8305</v>
-      </c>
-      <c r="B46" s="0">
-        <v>473.901</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" s="0">
-        <v>0.8489</v>
-      </c>
-      <c r="B47" s="0">
-        <v>474.2024</v>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" s="0">
-        <v>0.8672</v>
-      </c>
-      <c r="B48" s="0">
-        <v>474.4589</v>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" s="0">
-        <v>0.8856</v>
-      </c>
-      <c r="B49" s="0">
-        <v>474.5743</v>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" s="0">
-        <v>0.9039</v>
-      </c>
-      <c r="B50" s="0">
-        <v>474.8436</v>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" s="0">
-        <v>0.9223</v>
-      </c>
-      <c r="B51" s="0">
-        <v>474.7154</v>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" s="0">
-        <v>0.9406</v>
-      </c>
-      <c r="B52" s="0">
-        <v>475.4015</v>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" s="0">
-        <v>0.959</v>
-      </c>
-      <c r="B53" s="0">
-        <v>476.5364</v>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" s="0">
-        <v>0.9773</v>
-      </c>
-      <c r="B54" s="0">
-        <v>477.9086</v>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" s="0">
-        <v>0.9924</v>
-      </c>
-      <c r="B55" s="0">
-        <v>478.5406</v>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" s="0">
-        <v>0.0924</v>
-      </c>
-      <c r="B56" s="0">
-        <v>318.75</v>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57" s="0">
-        <v>0.0924</v>
-      </c>
-      <c r="B57" s="0">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="58">
-      <c r="A58" s="0">
-        <v>0.0924</v>
-      </c>
-      <c r="B58" s="0">
-        <v>279.6875</v>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59" s="0">
-        <v>0.0887</v>
-      </c>
-      <c r="B59" s="0">
-        <v>253.125</v>
-      </c>
-    </row>
-    <row r="60">
-      <c r="A60" s="0">
-        <v>0.0906</v>
-      </c>
-      <c r="B60" s="0">
-        <v>229.6875</v>
-      </c>
-    </row>
-    <row r="61">
-      <c r="A61" s="0">
-        <v>0.0906</v>
-      </c>
-      <c r="B61" s="0">
-        <v>214.0625</v>
-      </c>
-    </row>
-    <row r="62">
-      <c r="A62" s="0">
-        <v>0.0924</v>
-      </c>
-      <c r="B62" s="0">
-        <v>196.875</v>
-      </c>
-    </row>
-    <row r="63">
-      <c r="A63" s="0">
-        <v>0.0924</v>
-      </c>
-      <c r="B63" s="0">
-        <v>171.875</v>
-      </c>
-    </row>
-    <row r="64">
-      <c r="A64" s="0">
-        <v>0.0906</v>
-      </c>
-      <c r="B64" s="0">
-        <v>146.875</v>
-      </c>
-    </row>
-    <row r="65">
-      <c r="A65" s="0">
-        <v>0.0906</v>
-      </c>
-      <c r="B65" s="0">
-        <v>132.8125</v>
-      </c>
-    </row>
-    <row r="66">
-      <c r="A66" s="0">
-        <v>0.0906</v>
-      </c>
-      <c r="B66" s="0">
-        <v>115.625</v>
-      </c>
-    </row>
-    <row r="67">
-      <c r="A67" s="0">
-        <v>0.0906</v>
-      </c>
-      <c r="B67" s="0">
-        <v>93.75</v>
-      </c>
-    </row>
-    <row r="68">
-      <c r="A68" s="0">
-        <v>0.0887</v>
-      </c>
-      <c r="B68" s="0">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="69">
-      <c r="A69" s="0">
-        <v>0.0887</v>
-      </c>
-      <c r="B69" s="0">
-        <v>42.1875</v>
-      </c>
-    </row>
-    <row r="70">
-      <c r="A70" s="0">
-        <v>0.0887</v>
-      </c>
-      <c r="B70" s="0">
-        <v>17.1875</v>
-      </c>
-    </row>
-    <row r="71"/>
+        <v>380.7135</v>
+      </c>
+    </row>
+    <row r="36"/>
   </sheetData>
   <headerFooter/>
   <drawing r:id="rId1"/>

--- a/ArticleManage/main_working_folder/output_folders/Data 52 Preparation of tank-like resin-derived/Data52_all_graphs_excel.xlsx
+++ b/ArticleManage/main_working_folder/output_folders/Data 52 Preparation of tank-like resin-derived/Data52_all_graphs_excel.xlsx
@@ -5,11 +5,11 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Figure 7 TPCSs-1-700  0-1-0-700" sheetId="1" r:id="rId1"/>
-    <sheet name="Figure 7 TPCSs-2-600  0-1-0-700" sheetId="2" r:id="rId4"/>
-    <sheet name="Figure 7 TPCSs-2-700  0-1-0-700" sheetId="3" r:id="rId5"/>
-    <sheet name="Figure 7 TPCSs-2-800  0-1-0-700" sheetId="4" r:id="rId6"/>
-    <sheet name="Figure 7 TPCSs-3-700  0-1-0-700" sheetId="5" r:id="rId7"/>
+    <sheet name="Figure 7 TPCSs-1-700  0&amp;1&amp;0&amp;700" sheetId="1" r:id="rId1"/>
+    <sheet name="Figure 7 TPCSs-2-600  0&amp;1&amp;0&amp;700" sheetId="2" r:id="rId4"/>
+    <sheet name="Figure 7 TPCSs-2-700  0&amp;1&amp;0&amp;700" sheetId="3" r:id="rId5"/>
+    <sheet name="Figure 7 TPCSs-2-800  0&amp;1&amp;0&amp;700" sheetId="4" r:id="rId6"/>
+    <sheet name="Figure 7 TPCSs-3-700  0&amp;1&amp;0&amp;700" sheetId="5" r:id="rId7"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -172,12 +172,12 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Figure 7 TPCSs-1-700  0-1-0-700'!$A$3:$A$70</c:f>
+              <c:f>'Figure 7 TPCSs-1-700  0&amp;1&amp;0&amp;700'!$A$3:$A$70</c:f>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Figure 7 TPCSs-1-700  0-1-0-700'!$B$3:$B$70</c:f>
+              <c:f>'Figure 7 TPCSs-1-700  0&amp;1&amp;0&amp;700'!$B$3:$B$70</c:f>
               <c:numCache/>
             </c:numRef>
           </c:yVal>
@@ -486,12 +486,12 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Figure 7 TPCSs-2-600  0-1-0-700'!$A$3:$A$70</c:f>
+              <c:f>'Figure 7 TPCSs-2-600  0&amp;1&amp;0&amp;700'!$A$3:$A$70</c:f>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Figure 7 TPCSs-2-600  0-1-0-700'!$B$3:$B$70</c:f>
+              <c:f>'Figure 7 TPCSs-2-600  0&amp;1&amp;0&amp;700'!$B$3:$B$70</c:f>
               <c:numCache/>
             </c:numRef>
           </c:yVal>
@@ -800,12 +800,12 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Figure 7 TPCSs-2-700  0-1-0-700'!$A$3:$A$70</c:f>
+              <c:f>'Figure 7 TPCSs-2-700  0&amp;1&amp;0&amp;700'!$A$3:$A$70</c:f>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Figure 7 TPCSs-2-700  0-1-0-700'!$B$3:$B$70</c:f>
+              <c:f>'Figure 7 TPCSs-2-700  0&amp;1&amp;0&amp;700'!$B$3:$B$70</c:f>
               <c:numCache/>
             </c:numRef>
           </c:yVal>
@@ -1114,12 +1114,12 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Figure 7 TPCSs-2-800  0-1-0-700'!$A$3:$A$70</c:f>
+              <c:f>'Figure 7 TPCSs-2-800  0&amp;1&amp;0&amp;700'!$A$3:$A$70</c:f>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Figure 7 TPCSs-2-800  0-1-0-700'!$B$3:$B$70</c:f>
+              <c:f>'Figure 7 TPCSs-2-800  0&amp;1&amp;0&amp;700'!$B$3:$B$70</c:f>
               <c:numCache/>
             </c:numRef>
           </c:yVal>
@@ -1428,12 +1428,12 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Figure 7 TPCSs-3-700  0-1-0-700'!$A$3:$A$70</c:f>
+              <c:f>'Figure 7 TPCSs-3-700  0&amp;1&amp;0&amp;700'!$A$3:$A$70</c:f>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Figure 7 TPCSs-3-700  0-1-0-700'!$B$3:$B$70</c:f>
+              <c:f>'Figure 7 TPCSs-3-700  0&amp;1&amp;0&amp;700'!$B$3:$B$70</c:f>
               <c:numCache/>
             </c:numRef>
           </c:yVal>
